--- a/marketing/ConnectGPT (Responses).xlsx
+++ b/marketing/ConnectGPT (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sayantansatpati/EWMBA/github/ewmba_haas/marketing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879EA2B3-09B8-DB4D-B59C-18264D7A7C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F0E94-4146-E24D-8B68-DBB5B95D0023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,11 +436,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -500,56 +500,95 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>45238.502353055555</v>
+        <v>45238.530794398146</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>45238.530794398146</v>
+        <v>45238.551948680557</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>45238.551948680557</v>
+        <v>45238.566598310186</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -561,75 +600,75 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>45238.566598310186</v>
+        <v>45238.737718564815</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>29</v>
@@ -637,13 +676,13 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>45238.737718564815</v>
+        <v>45238.741927974537</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -652,13 +691,13 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -667,13 +706,13 @@
         <v>5</v>
       </c>
       <c r="K6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>29</v>
@@ -681,28 +720,25 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>45238.741927974537</v>
+        <v>45238.743973194447</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
@@ -725,10 +761,13 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>45238.743973194447</v>
+        <v>45238.91317453704</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -737,42 +776,39 @@
         <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
       </c>
       <c r="L8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>45238.91317453704</v>
+        <v>45239.269148449079</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
@@ -781,28 +817,28 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
       </c>
       <c r="J9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>27</v>
@@ -810,13 +846,16 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>45239.269148449079</v>
+        <v>45239.507746898147</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -825,16 +864,16 @@
         <v>19</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
       </c>
       <c r="J10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="1">
         <v>3</v>
@@ -843,33 +882,33 @@
         <v>4</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>45239.507746898147</v>
+        <v>45239.621354976851</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
@@ -881,24 +920,24 @@
         <v>5</v>
       </c>
       <c r="K11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>45239.621354976851</v>
+        <v>45239.943355671297</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -910,28 +949,28 @@
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>27</v>
@@ -939,16 +978,16 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>45239.943355671297</v>
+        <v>45239.944537905089</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
@@ -957,39 +996,39 @@
         <v>25</v>
       </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>45239.944537905089</v>
+        <v>45239.992693668981</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>37</v>
@@ -1001,39 +1040,39 @@
         <v>25</v>
       </c>
       <c r="G14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
       <c r="J14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>45239.992693668981</v>
+        <v>45243.393494722222</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -1054,24 +1093,30 @@
         <v>3</v>
       </c>
       <c r="J15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L15" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>45243.393494722222</v>
+        <v>45243.4372577662</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1083,37 +1128,37 @@
         <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>29</v>
@@ -1121,22 +1166,22 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>45243.4372577662</v>
+        <v>45243.475525833332</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1">
         <v>4</v>
@@ -1148,22 +1193,22 @@
         <v>4</v>
       </c>
       <c r="J17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>29</v>
@@ -1171,13 +1216,13 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>45243.475525833332</v>
+        <v>45243.492068425927</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>37</v>
@@ -1186,31 +1231,31 @@
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18" s="1">
         <v>4</v>
       </c>
       <c r="L18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>41</v>
@@ -1221,10 +1266,10 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>45243.492068425927</v>
+        <v>45243.524998009263</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>39</v>
@@ -1242,39 +1287,30 @@
         <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1">
-        <v>3</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1">
-        <v>4</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>45243.524998009263</v>
+        <v>45243.527953055556</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
@@ -1286,33 +1322,42 @@
         <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>45243.527953055556</v>
+        <v>45243.528684409721</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
@@ -1327,34 +1372,34 @@
         <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
         <v>3</v>
       </c>
       <c r="I21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" s="1">
         <v>4</v>
       </c>
       <c r="L21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>27</v>
@@ -1362,7 +1407,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>45243.528684409721</v>
+        <v>45243.553387245367</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>15</v>
@@ -1371,40 +1416,40 @@
         <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G22" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <v>3</v>
       </c>
       <c r="I22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1">
         <v>5</v>
       </c>
       <c r="K22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>27</v>
@@ -1412,7 +1457,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>45243.553387245367</v>
+        <v>45243.557260590278</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
@@ -1421,22 +1466,22 @@
         <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1">
         <v>5</v>
@@ -1445,16 +1490,16 @@
         <v>5</v>
       </c>
       <c r="L23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>27</v>
@@ -1462,7 +1507,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>45243.557260590278</v>
+        <v>45243.56973314815</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>15</v>
@@ -1471,31 +1516,31 @@
         <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
       </c>
       <c r="I24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>40</v>
@@ -1507,12 +1552,12 @@
         <v>42</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>45243.56973314815</v>
+        <v>45243.574615451391</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
@@ -1530,19 +1575,19 @@
         <v>25</v>
       </c>
       <c r="G25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" s="1">
         <v>4</v>
       </c>
       <c r="J25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1">
         <v>3</v>
@@ -1557,121 +1602,121 @@
         <v>42</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>45243.574615451391</v>
+        <v>45243.579824872686</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>45243.579824872686</v>
+        <v>45243.58507862268</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
       </c>
       <c r="I27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>45243.58507862268</v>
+        <v>45243.602181608796</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>18</v>
@@ -1680,89 +1725,89 @@
         <v>25</v>
       </c>
       <c r="G28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1">
         <v>4</v>
       </c>
       <c r="J28" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>45243.602181608796</v>
+        <v>45243.627966539352</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="1">
         <v>4</v>
       </c>
       <c r="J29" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>45243.627966539352</v>
+        <v>45243.662642824071</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>15</v>
@@ -1777,25 +1822,25 @@
         <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="1">
         <v>3</v>
       </c>
       <c r="I30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>41</v>
@@ -1807,12 +1852,12 @@
         <v>42</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>45243.662642824071</v>
+        <v>45243.675390983801</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>15</v>
@@ -1823,14 +1868,11 @@
       <c r="D31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="1">
         <v>3</v>
@@ -1842,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="K31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>41</v>
@@ -1857,30 +1899,33 @@
         <v>42</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>45243.675390983801</v>
+        <v>45243.783164687498</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" s="1">
         <v>3</v>
@@ -1904,159 +1949,159 @@
         <v>42</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>45243.783164687498</v>
+        <v>45243.801080682868</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>45243.801080682868</v>
+        <v>45243.89638554398</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G34" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L34" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>45243.89638554398</v>
+        <v>45243.925131122684</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G35" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K35" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L35" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>45243.925131122684</v>
+        <v>45243.935341689816</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -2065,7 +2110,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>18</v>
@@ -2077,28 +2122,28 @@
         <v>4</v>
       </c>
       <c r="H36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" s="1">
         <v>4</v>
       </c>
       <c r="J36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>27</v>
@@ -2106,7 +2151,7 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>45243.935341689816</v>
+        <v>45244.358771967592</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>15</v>
@@ -2115,7 +2160,7 @@
         <v>39</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>18</v>
@@ -2124,22 +2169,22 @@
         <v>25</v>
       </c>
       <c r="G37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1">
         <v>3</v>
       </c>
       <c r="I37" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" s="1">
         <v>4</v>
       </c>
       <c r="K37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>40</v>
@@ -2151,62 +2196,62 @@
         <v>41</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>45244.358771967592</v>
+        <v>45244.670249629635</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38" s="1">
         <v>4</v>
       </c>
       <c r="K38" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L38" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>45244.670249629635</v>
+        <v>45244.780518449072</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>15</v>
@@ -2215,28 +2260,28 @@
         <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="1">
         <v>4</v>
       </c>
       <c r="I39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L39" s="1">
         <v>4</v>
@@ -2245,10 +2290,10 @@
         <v>40</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>27</v>
@@ -2256,40 +2301,40 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>45244.780518449072</v>
+        <v>45244.786049756949</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="1">
         <v>4</v>
       </c>
       <c r="I40" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1">
         <v>5</v>
       </c>
       <c r="K40" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>40</v>
@@ -2306,16 +2351,16 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>45244.786049756949</v>
+        <v>45244.825550671296</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>18</v>
@@ -2330,16 +2375,16 @@
         <v>4</v>
       </c>
       <c r="I41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K41" s="1">
         <v>3</v>
       </c>
       <c r="L41" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>40</v>
@@ -2356,16 +2401,16 @@
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>45244.825550671296</v>
+        <v>45244.874674085644</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>18</v>
@@ -2374,22 +2419,22 @@
         <v>25</v>
       </c>
       <c r="G42" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" s="1">
         <v>4</v>
       </c>
       <c r="I42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J42" s="1">
         <v>4</v>
       </c>
       <c r="K42" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L42" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>40</v>
@@ -2401,12 +2446,12 @@
         <v>41</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>45244.874674085644</v>
+        <v>45244.896581203706</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>15</v>
@@ -2415,48 +2460,48 @@
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K43" s="1">
         <v>4</v>
       </c>
       <c r="L43" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>45244.896581203706</v>
+        <v>45244.973892928239</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>15</v>
@@ -2465,16 +2510,16 @@
         <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H44" s="1">
         <v>2</v>
@@ -2483,72 +2528,72 @@
         <v>3</v>
       </c>
       <c r="J44" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L44" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>45244.973892928239</v>
+        <v>45245.238901932869</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G45" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K45" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L45" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>29</v>
@@ -2556,7 +2601,7 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>45245.238901932869</v>
+        <v>45245.485996226853</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>15</v>
@@ -2565,25 +2610,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
         <v>4</v>
       </c>
       <c r="I46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J46" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K46" s="1">
         <v>5</v>
@@ -2601,42 +2646,42 @@
         <v>42</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>45245.485996226853</v>
+        <v>45245.840052210653</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47" s="1">
         <v>4</v>
       </c>
       <c r="K47" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L47" s="1">
         <v>4</v>
@@ -2645,18 +2690,18 @@
         <v>40</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>45245.840052210653</v>
+        <v>45246.508161331018</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>15</v>
@@ -2665,48 +2710,48 @@
         <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48" s="1">
         <v>4</v>
       </c>
       <c r="J48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L48" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>45246.508161331018</v>
+        <v>45246.536424444443</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>15</v>
@@ -2724,39 +2769,36 @@
         <v>25</v>
       </c>
       <c r="G49" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I49" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K49" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L49" s="1">
         <v>2</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>45246.536424444443</v>
+        <v>45246.647960636576</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>15</v>
@@ -2765,45 +2807,48 @@
         <v>39</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J50" s="1">
         <v>4</v>
       </c>
       <c r="K50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>45246.647960636576</v>
+        <v>45247.36751084491</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>15</v>
@@ -2812,31 +2857,31 @@
         <v>39</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G51" s="1">
         <v>3</v>
       </c>
       <c r="H51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" s="1">
         <v>4</v>
       </c>
       <c r="J51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K51" s="1">
         <v>4</v>
       </c>
       <c r="L51" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>40</v>
@@ -2848,54 +2893,54 @@
         <v>42</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>45247.36751084491</v>
+        <v>45247.483176759255</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G52" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J52" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K52" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>27</v>
@@ -2903,16 +2948,16 @@
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>45247.483176759255</v>
+        <v>45250.826020960652</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>18</v>
@@ -2921,19 +2966,19 @@
         <v>25</v>
       </c>
       <c r="G53" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J53" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L53" s="1">
         <v>4</v>
@@ -2942,62 +2987,12 @@
         <v>40</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
-        <v>45250.826020960652</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="1">
-        <v>3</v>
-      </c>
-      <c r="H54" s="1">
-        <v>3</v>
-      </c>
-      <c r="I54" s="1">
-        <v>3</v>
-      </c>
-      <c r="J54" s="1">
-        <v>4</v>
-      </c>
-      <c r="K54" s="1">
-        <v>4</v>
-      </c>
-      <c r="L54" s="1">
-        <v>4</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P54" s="1" t="s">
         <v>27</v>
       </c>
     </row>
